--- a/academycity/data/training/datasets/excel/tests/112_1_InternalHit_xray_20230607.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_InternalHit_xray_20230607.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">302010_shooting after_exertion</t>
   </si>
   <si>
-    <t xml:space="preserve">KYUNGU WABANZA ADOLPH </t>
+    <t xml:space="preserve">KYUNGU WABANZA ADOLPH</t>
   </si>
   <si>
     <t xml:space="preserve">Abanga Bosali Glody</t>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">Amani Alexandre Felix</t>
   </si>
   <si>
-    <t xml:space="preserve">AMULI  MWAMBAVU  JOEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badibanga Kudimbila </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BADIBANGA NGALAMULUME  Hilaire </t>
+    <t xml:space="preserve">AMULI MWAMBAVU JOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badibanga Kudimbila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADIBANGA NGALAMULUME Hilaire</t>
   </si>
   <si>
     <t xml:space="preserve">BAPEMO NDJUAMA Paul</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Ekofo Ilunga</t>
   </si>
   <si>
-    <t xml:space="preserve">EPONGANDO ABOKO </t>
+    <t xml:space="preserve">EPONGANDO ABOKO</t>
   </si>
   <si>
     <t xml:space="preserve">ILOFA BOTEKI Cedric</t>
@@ -91,31 +91,31 @@
     <t xml:space="preserve">Kalogi Kayembe</t>
   </si>
   <si>
-    <t xml:space="preserve">KAMBOLE BAKOLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KASAMBAYI MANDELA </t>
+    <t xml:space="preserve">KAMBOLE BAKOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASAMBAYI MANDELA</t>
   </si>
   <si>
     <t xml:space="preserve">Kasunga Buyamba</t>
   </si>
   <si>
-    <t xml:space="preserve">KAYUMBA LOSALA REAGAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIFITA LUBAMBO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOLA TSHIBANGU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOKONDA KOYI TIKAILELI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBANDA  BAPUABA  ALI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBO MBUONO </t>
+    <t xml:space="preserve">KAYUMBA LOSALA REAGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIFITA LUBAMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOLA TSHIBANGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOKONDA KOYI TIKAILELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUBANDA BAPUABA ALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUBO MBUONO</t>
   </si>
   <si>
     <t xml:space="preserve">Masambuku Alien JOEL</t>
@@ -124,13 +124,13 @@
     <t xml:space="preserve">Mbibe EMELEMEKIA Eric</t>
   </si>
   <si>
-    <t xml:space="preserve">MPUTU KABADI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUSUNGAYI MUTAMBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWAKA-NDJAO </t>
+    <t xml:space="preserve">MPUTU KABADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSUNGAYI MUTAMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWAKA NDJAO</t>
   </si>
   <si>
     <t xml:space="preserve">Mwantambwe Ishalilollo</t>
@@ -142,16 +142,16 @@
     <t xml:space="preserve">Nimependelwa Ilunga</t>
   </si>
   <si>
-    <t xml:space="preserve">NYEMBO KIBONGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAPANYA-MANYA </t>
+    <t xml:space="preserve">NYEMBO KIBONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTAPANYA MANYA</t>
   </si>
   <si>
     <t xml:space="preserve">Sangoli Tundu Thierry</t>
   </si>
   <si>
-    <t xml:space="preserve">Shimpaka Muelelayi </t>
+    <t xml:space="preserve">Shimpaka Muelelayi</t>
   </si>
   <si>
     <t xml:space="preserve">Tanbue Tanbue</t>
@@ -163,13 +163,13 @@
     <t xml:space="preserve">Tshibwawa Kasadi Jean</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHISHIMBI KALILI </t>
+    <t xml:space="preserve">TSHISHIMBI KALILI</t>
   </si>
   <si>
     <t xml:space="preserve">Tshiszaye Kabamba</t>
   </si>
   <si>
-    <t xml:space="preserve">Kongawi Kintambo</t>
+    <t xml:space="preserve">Kongawi kintambo</t>
   </si>
   <si>
     <t xml:space="preserve">Ntumbua Mulumba JOSEPH</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Abia Mazembe</t>
   </si>
   <si>
-    <t xml:space="preserve">Aganze Matabaro </t>
+    <t xml:space="preserve">Aganze Matabaro</t>
   </si>
   <si>
     <t xml:space="preserve">BADIPENYI LUNDE</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">BOPENDA ALELA</t>
   </si>
   <si>
-    <t xml:space="preserve">BUADI BUADI</t>
+    <t xml:space="preserve">MUADI BUADIA</t>
   </si>
   <si>
     <t xml:space="preserve">GOLIATH BAGOLO</t>
@@ -238,13 +238,13 @@
     <t xml:space="preserve">KAYEMBE MULAMBA</t>
   </si>
   <si>
-    <t xml:space="preserve">KUPA  TSHISEKEDI  CICERON  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANGANDA ENGAMBE ROGER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOKANGI GALE  CHIRO </t>
+    <t xml:space="preserve">KUPA TSHISEKEDI CICERON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANGANDA ENGAMBE ROGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOKANGI GALE CHIRO</t>
   </si>
   <si>
     <t xml:space="preserve">LOWO OHEMBE BERTIN</t>
@@ -253,61 +253,61 @@
     <t xml:space="preserve">LUBEYA LUBEYA</t>
   </si>
   <si>
-    <t xml:space="preserve">MALANGU  TSHIBUABUA  GLODY </t>
+    <t xml:space="preserve">MALANGU TSHIBUABUA GLODY</t>
   </si>
   <si>
     <t xml:space="preserve">MBENGA TSHIMBU</t>
   </si>
   <si>
-    <t xml:space="preserve">MONGA-SELEMANI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOWANGI-MOWANGI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPIANA NSHIIMBI MICHEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPONGO-TSHIBANGU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULUEME  NTAMILANDU GLODY </t>
+    <t xml:space="preserve">MONGA SELEMANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOWANGI MOWANGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPIANA NSHIIMBI MICHEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPONGO TSHIBANGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULUEME NTAMILANDU GLODY</t>
   </si>
   <si>
     <t xml:space="preserve">MULUMBA MUBENGAYI</t>
   </si>
   <si>
-    <t xml:space="preserve">MULUNDA KABANGU  </t>
+    <t xml:space="preserve">BARIKIWA RUGANZA</t>
   </si>
   <si>
     <t xml:space="preserve">MULUNDA KAZADI</t>
   </si>
   <si>
-    <t xml:space="preserve">MUNYANJI NSENGA LEBON  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUPOYI MUSAWU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGALAMULUME NGALAMULUME  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKOYI WEMBOLOWA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSONGOLO NSONGOLO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTENGU NTENGU  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTUMBA KALONJI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTUMBA KATEMBUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBI KAZADI </t>
+    <t xml:space="preserve">MUNYANJI NSENGA LEBON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUPOYI MUSAWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGALAMULUME NGALAMULUME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKOYI WEMBOLOWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSONGOLO NSONGOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTENGU NTENGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTUMBA KALONJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTUMBA KATEMBUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBI KAZADI</t>
   </si>
   <si>
     <t xml:space="preserve">NTUMBA KAZADI SONNY</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">BADIFULA BASUA OMER</t>
   </si>
   <si>
-    <t xml:space="preserve">BADIMINA MBOMBO ALAIN </t>
+    <t xml:space="preserve">BADIMINA MBOMBO ALAIN</t>
   </si>
   <si>
     <t xml:space="preserve">BAKAFA NTUMBA HUBERT</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">MOTOMOKO PAMPA LEONARD</t>
   </si>
   <si>
-    <t xml:space="preserve">MPINDA MUSHIPAYI RAPHAEL </t>
+    <t xml:space="preserve">MPINDA MUSHIPAYI RAPHAEL</t>
   </si>
   <si>
     <t xml:space="preserve">MUEMA KABIKO HERITIER</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">FELE GIANZE FIDELE</t>
   </si>
   <si>
-    <t xml:space="preserve">ILUNGA MUILETANDA JUNIOR </t>
+    <t xml:space="preserve">ILUNGA MUILETANDA JUNIOR</t>
   </si>
   <si>
     <t xml:space="preserve">ILUNGA MUJINGA DIEU</t>
@@ -505,7 +505,7 @@
     <t xml:space="preserve">KABAMBA ILUNGA GLOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">KABASU MUKADI FRANCIS </t>
+    <t xml:space="preserve">KABASU MUKADI FRANCIS</t>
   </si>
   <si>
     <t xml:space="preserve">KABENGELE KALONJI OMER</t>
@@ -514,16 +514,16 @@
     <t xml:space="preserve">KABENGELE NDONDA TEXAS</t>
   </si>
   <si>
-    <t xml:space="preserve">KABEYA KABEYA DIEUDONNE </t>
+    <t xml:space="preserve">KABEYA KABEYA DIEUDONNE</t>
   </si>
   <si>
     <t xml:space="preserve">KABEYA KANYINDA DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">KABEYA NZEWU DAVID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KABEYA WA LUPENGA MATTHIEU </t>
+    <t xml:space="preserve">KABEYA NZEWU DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABEYA WA LUPENGA MATTHIEU</t>
   </si>
   <si>
     <t xml:space="preserve">KABUANGA KAMWAJI GEDEON</t>
@@ -532,7 +532,7 @@
     <t xml:space="preserve">KABUTU KABUTU ERICK</t>
   </si>
   <si>
-    <t xml:space="preserve">KALALA NTUMBA JOHN </t>
+    <t xml:space="preserve">KALALA NTUMBA JOHN</t>
   </si>
   <si>
     <t xml:space="preserve">TSHITOKA NKITA PASCAL</t>
@@ -541,28 +541,28 @@
     <t xml:space="preserve">KALAMBAYI MOSHILA JETRO</t>
   </si>
   <si>
-    <t xml:space="preserve">KALOFANI FASO MODESTE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KALONJI MBUYI FISTON  </t>
+    <t xml:space="preserve">KALOFANI FASO MODESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALONJI MBUYI FISTON</t>
   </si>
   <si>
     <t xml:space="preserve">KAMALU MUSHIDI AMBROISE</t>
   </si>
   <si>
-    <t xml:space="preserve">KAMBAJI KANDA AIME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAMBALA KABEYA ALAIN  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KANKU MANANGA SYLVAIN  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPEND KAWELE CONSTANT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KATAMBA NSUNGULA IDRIS </t>
+    <t xml:space="preserve">KAMBAJI KANDA AIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMBALA KABEYA ALAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANKU MANANGA SYLVAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPEND KAWELE CONSTANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATAMBA NSUNGULA IDRIS</t>
   </si>
   <si>
     <t xml:space="preserve">MBAYO WAMBAYO VAN</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve">MBOMBA LIGALE DAVID</t>
   </si>
   <si>
-    <t xml:space="preserve">MUKUBU WAKABANGI </t>
+    <t xml:space="preserve">MUKUBU WAKABANGI</t>
   </si>
   <si>
     <t xml:space="preserve">NDAKAZEKA LUNGOYI STEEVIE</t>
@@ -591,7 +591,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -642,6 +642,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -659,19 +666,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF1CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFEF1CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -698,8 +699,14 @@
         <bgColor rgb="FFD2F1DA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -722,13 +729,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -738,15 +738,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -779,7 +770,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -804,64 +795,76 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -876,11 +879,11 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFEF1CC"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -893,7 +896,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFEF1CC"/>
       <rgbColor rgb="FFD9E6FC"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -943,15 +946,15 @@
   </sheetPr>
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="5" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1022" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="10.5"/>
@@ -972,7 +975,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>-1</v>
       </c>
@@ -986,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1670,21 +1673,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="B52" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1696,21 +1699,21 @@
       </c>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="B54" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>-1</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2012,11 +2015,11 @@
       <c r="C76" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="16" t="n">
+      <c r="D76" s="17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>-1</v>
       </c>
@@ -2254,655 +2257,655 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B94" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C94" s="18" t="s">
+      <c r="B94" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B95" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B96" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B97" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B98" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B99" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B100" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B101" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D101" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B102" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C102" s="18" t="s">
+      <c r="B102" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B103" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" s="18" t="s">
+      <c r="B103" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B104" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="18" t="s">
+      <c r="B104" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D104" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B105" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="18" t="s">
+      <c r="B105" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B106" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" s="18" t="s">
+      <c r="B106" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B107" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C107" s="18" t="s">
+      <c r="B107" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B108" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C108" s="18" t="s">
+      <c r="B108" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D108" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B109" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C109" s="18" t="s">
+      <c r="B109" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B110" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C110" s="18" t="s">
+      <c r="B110" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B111" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B112" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B113" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C113" s="18" t="s">
+      <c r="B113" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B114" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C114" s="18" t="s">
+      <c r="B114" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D114" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B115" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" s="18" t="s">
+      <c r="B115" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B116" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C116" s="18" t="s">
+      <c r="B116" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B117" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C117" s="18" t="s">
+      <c r="B117" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D117" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B118" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" s="18" t="s">
+      <c r="B118" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B119" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C119" s="18" t="s">
+      <c r="B119" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B120" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C120" s="18" t="s">
+      <c r="B120" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D120" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B121" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" s="18" t="s">
+      <c r="B121" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D121" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B122" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C122" s="18" t="s">
+      <c r="B122" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B123" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C123" s="18" t="s">
+      <c r="B123" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B124" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C124" s="18" t="s">
+      <c r="B124" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B125" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C125" s="18" t="s">
+      <c r="B125" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D125" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B126" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C126" s="18" t="s">
+      <c r="B126" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>128</v>
       </c>
       <c r="D126" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B127" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="B127" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D127" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B128" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" s="18" t="s">
+      <c r="B128" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D128" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B129" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C129" s="18" t="s">
+      <c r="B129" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B130" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C130" s="18" t="s">
+      <c r="B130" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D130" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B131" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C131" s="18" t="s">
+      <c r="B131" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B132" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C132" s="18" t="s">
+      <c r="B132" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B133" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C133" s="18" t="s">
+      <c r="B133" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D133" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B134" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C134" s="18" t="s">
+      <c r="B134" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D134" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B135" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C135" s="18" t="s">
+      <c r="B135" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D135" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B136" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" s="18" t="s">
+      <c r="B136" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>138</v>
       </c>
       <c r="D136" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B137" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C137" s="18" t="s">
+      <c r="B137" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D137" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B138" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C138" s="18" t="s">
+      <c r="B138" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B139" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C139" s="18" t="s">
+      <c r="B139" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D139" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B140" s="19" t="n">
+      <c r="B140" s="21" t="n">
         <v>4</v>
       </c>
       <c r="C140" s="20" t="s">
@@ -2912,56 +2915,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B141" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C141" s="20" t="s">
+      <c r="B141" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D141" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B142" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C142" s="20" t="s">
+      <c r="B142" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>144</v>
       </c>
       <c r="D142" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B143" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C143" s="20" t="s">
+      <c r="B143" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D143" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B144" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C144" s="20" t="s">
+      <c r="B144" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D144" s="7" t="n">
@@ -2972,456 +2975,456 @@
       <c r="A145" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B145" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C145" s="20" t="s">
+      <c r="B145" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B146" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C146" s="20" t="s">
+      <c r="B146" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D146" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B147" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" s="20" t="s">
+      <c r="B147" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B148" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C148" s="20" t="s">
+      <c r="B148" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B149" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C149" s="20" t="s">
+      <c r="B149" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" s="22" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B150" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C150" s="20" t="s">
+      <c r="B150" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D150" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B151" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C151" s="20" t="s">
+      <c r="B151" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" s="22" t="s">
         <v>153</v>
       </c>
       <c r="D151" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B152" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C152" s="20" t="s">
+      <c r="B152" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D152" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B153" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C153" s="20" t="s">
+      <c r="B153" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>155</v>
       </c>
       <c r="D153" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B154" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C154" s="20" t="s">
+      <c r="B154" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" s="22" t="s">
         <v>156</v>
       </c>
       <c r="D154" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B155" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C155" s="20" t="s">
+      <c r="B155" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D155" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B156" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C156" s="20" t="s">
+      <c r="B156" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D156" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B157" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C157" s="20" t="s">
+      <c r="B157" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D157" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B158" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C158" s="20" t="s">
+      <c r="B158" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>160</v>
       </c>
       <c r="D158" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B159" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C159" s="20" t="s">
+      <c r="B159" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" s="22" t="s">
         <v>161</v>
       </c>
       <c r="D159" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B160" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C160" s="20" t="s">
+      <c r="B160" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" s="22" t="s">
         <v>162</v>
       </c>
       <c r="D160" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B161" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C161" s="20" t="s">
+      <c r="B161" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" s="22" t="s">
         <v>163</v>
       </c>
       <c r="D161" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B162" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C162" s="20" t="s">
+      <c r="B162" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>164</v>
       </c>
       <c r="D162" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B163" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C163" s="20" t="s">
+      <c r="B163" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" s="22" t="s">
         <v>165</v>
       </c>
       <c r="D163" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B164" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C164" s="20" t="s">
+      <c r="B164" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>166</v>
       </c>
       <c r="D164" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B165" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C165" s="20" t="s">
+      <c r="B165" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" s="22" t="s">
         <v>167</v>
       </c>
       <c r="D165" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B166" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C166" s="20" t="s">
+      <c r="B166" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C166" s="22" t="s">
         <v>168</v>
       </c>
       <c r="D166" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B167" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C167" s="20" t="s">
+      <c r="B167" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" s="22" t="s">
         <v>169</v>
       </c>
       <c r="D167" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B168" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C168" s="20" t="s">
+      <c r="B168" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" s="22" t="s">
         <v>170</v>
       </c>
       <c r="D168" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B169" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C169" s="20" t="s">
+      <c r="B169" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" s="23" t="s">
         <v>171</v>
       </c>
       <c r="D169" s="12"/>
     </row>
-    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B170" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C170" s="20" t="s">
+      <c r="B170" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D170" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B171" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C171" s="20" t="s">
+      <c r="B171" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" s="22" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B172" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C172" s="20" t="s">
+      <c r="B172" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>174</v>
       </c>
       <c r="D172" s="7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B173" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C173" s="20" t="s">
+      <c r="B173" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" s="22" t="s">
         <v>175</v>
       </c>
       <c r="D173" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B174" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C174" s="20" t="s">
+      <c r="B174" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" s="22" t="s">
         <v>176</v>
       </c>
       <c r="D174" s="7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B175" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C175" s="20" t="s">
+      <c r="B175" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" s="22" t="s">
         <v>177</v>
       </c>
       <c r="D175" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B176" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C176" s="20" t="s">
+      <c r="B176" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" s="22" t="s">
         <v>178</v>
       </c>
       <c r="D176" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B177" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C177" s="20" t="s">
+      <c r="B177" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D177" s="7" t="n">
@@ -3432,94 +3435,94 @@
       <c r="A178" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B178" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C178" s="20" t="s">
+      <c r="B178" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" s="22" t="s">
         <v>180</v>
       </c>
       <c r="D178" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B179" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C179" s="20" t="s">
+      <c r="B179" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D179" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B180" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C180" s="20" t="s">
+      <c r="B180" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>182</v>
       </c>
       <c r="D180" s="7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B181" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C181" s="20" t="s">
+      <c r="B181" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D181" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B182" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C182" s="20" t="s">
+      <c r="B182" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" s="22" t="s">
         <v>184</v>
       </c>
       <c r="D182" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B183" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C183" s="20" t="s">
+      <c r="B183" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" s="22" t="s">
         <v>185</v>
       </c>
       <c r="D183" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B184" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C184" s="20" t="s">
+      <c r="B184" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D184" s="7" t="n">

--- a/academycity/data/training/datasets/excel/tests/112_1_InternalHit_xray_20230607.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_InternalHit_xray_20230607.xlsx
@@ -947,7 +947,7 @@
   <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
